--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC60FAA-825D-4E83-890D-43B0DD2BC39E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF3D45F-025B-404D-84A1-DEEB82CE63F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ref(all_colors, str)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>link_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ref(all_colors,str)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>from_pos_idx_begin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ref(all_colors, str)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(128,238,80)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,6 +253,18 @@
   </si>
   <si>
     <t>c9</t>
+  </si>
+  <si>
+    <t>all_colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -593,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,6 +631,14 @@
       </c>
       <c r="B5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +653,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,10 +698,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -705,6 +713,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -713,26 +722,26 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
@@ -761,10 +770,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -781,32 +790,32 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
       <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -841,10 +850,10 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -908,10 +917,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +935,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -971,10 +980,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -985,7 +994,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>700</v>
@@ -997,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1018,14 +1027,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -1034,13 +1043,13 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
         <v>19</v>
@@ -1048,25 +1057,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1081,23 +1090,23 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1105,18 +1114,18 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -1130,7 +1139,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -1144,7 +1153,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2">
         <v>77</v>
@@ -1158,7 +1167,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2">
         <v>70</v>
@@ -1172,7 +1181,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -1186,7 +1195,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2">
         <v>201</v>
@@ -1200,7 +1209,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2">
         <v>148</v>
@@ -1214,7 +1223,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2">
         <v>207</v>
@@ -1228,7 +1237,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2">
         <v>63</v>
@@ -1242,7 +1251,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2">
         <v>140</v>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF3D45F-025B-404D-84A1-DEEB82CE63F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA29408-2942-402A-A119-39F1731646A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,9 @@
     <sheet name="circle_1" sheetId="3" r:id="rId6"/>
     <sheet name="circle_tick_1" sheetId="7" r:id="rId7"/>
     <sheet name="all_colors" sheetId="8" r:id="rId8"/>
+    <sheet name="value_on_tile" sheetId="9" r:id="rId9"/>
+    <sheet name="track_config" sheetId="10" r:id="rId10"/>
+    <sheet name="path_text" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="109">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>link_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>from_pos_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>to_tile_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,77 +188,260 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(128,238,80)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list(int, 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>all_colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> circle_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> sequence</t>
+  </si>
+  <si>
+    <t>filled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> opacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> color</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ref_color</t>
+  </si>
+  <si>
     <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuple(int, int, int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(128,238,80)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list(int, 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c0</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>c5</t>
-  </si>
-  <si>
-    <t>c6</t>
-  </si>
-  <si>
-    <t>c7</t>
-  </si>
-  <si>
-    <t>c8</t>
-  </si>
-  <si>
-    <t>c9</t>
-  </si>
-  <si>
-    <t>all_colors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>colors</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list(uint32, 3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>link_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> from_tile_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> from_pos_idx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to_tile_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to_pos_idx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> control_radius_percent</t>
+  </si>
+  <si>
+    <t>list(uint32, 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list(uint32,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>track_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin_pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uint32</t>
+  </si>
+  <si>
+    <t>draw_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_data_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_data_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius_offset_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius_offset_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_color_ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_color_ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path_text_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_align_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_path_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point_link_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point_link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_link_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_tick_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_on_tile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>track_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path_text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +461,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -593,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,16 +820,254 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC495C4-3CF6-4E18-807B-568E39424433}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D585CD3-8DA1-4F1A-ADDD-68B9CFC0C9F0}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -653,61 +1076,61 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -719,64 +1142,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED82CE6-C791-4FFA-8FE8-D66BDE368CDF}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -790,32 +1219,32 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -835,22 +1264,22 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
@@ -917,10 +1346,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -935,7 +1364,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -971,16 +1400,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -994,7 +1423,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>700</v>
@@ -1006,7 +1435,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1027,14 +1456,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -1043,13 +1472,13 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
         <v>19</v>
@@ -1057,25 +1486,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1089,24 +1518,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5769B10-9484-4289-BE42-B80511001860}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1114,18 +1543,18 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -1139,7 +1568,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -1153,7 +1582,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2">
         <v>77</v>
@@ -1167,7 +1596,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2">
         <v>70</v>
@@ -1181,7 +1610,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -1195,7 +1624,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2">
         <v>201</v>
@@ -1209,7 +1638,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2">
         <v>148</v>
@@ -1223,7 +1652,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2">
         <v>207</v>
@@ -1237,7 +1666,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2">
         <v>63</v>
@@ -1251,7 +1680,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2">
         <v>140</v>
@@ -1261,6 +1690,62 @@
       </c>
       <c r="D13" s="2">
         <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C66FA53-3CA9-420A-A740-29DBC3CF485E}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA29408-2942-402A-A119-39F1731646A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC6AC2B-3999-4463-B281-D4660BD80858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21710" yWindow="-7890" windowWidth="21820" windowHeight="38020" tabRatio="708" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="109">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(128,238,80)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list(int, 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c0</t>
   </si>
   <si>
@@ -239,10 +231,6 @@
   </si>
   <si>
     <t>colors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -276,10 +264,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -288,160 +272,177 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>list(uint32, 3)</t>
+    <t>link_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> from_tile_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> from_pos_idx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to_tile_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to_pos_idx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> control_radius_percent</t>
+  </si>
+  <si>
+    <t>value_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>track_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin_pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_data_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_data_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius_offset_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius_offset_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_color_ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_color_ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path_text_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_align_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_path_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point_link_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point_link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_link_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_tick_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_on_tile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>track_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>link_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> from_tile_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> from_pos_idx</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to_tile_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to_pos_idx</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> control_radius_percent</t>
-  </si>
-  <si>
-    <t>list(uint32, 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list(uint32,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>track_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>begin_pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>draw_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_data_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_data_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius_offset_min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius_offset_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_color_ref</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_color_ref</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path_text_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text_align_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text_path_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point_link_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point_link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_link_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>circle_tick_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>circle_tick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value_on_tile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>track_config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path_text</t>
+    <t>["uint", 3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["int",3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[128,238,80]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>any</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,13 +781,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -802,7 +803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -810,7 +811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -818,60 +819,60 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>100</v>
       </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>108</v>
-      </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -886,50 +887,50 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -951,11 +952,11 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" t="s">
-        <v>75</v>
+      <c r="H2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="J2" t="s">
         <v>2</v>
@@ -964,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -978,41 +979,41 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
         <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K1" t="s">
         <v>17</v>
@@ -1024,7 +1025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1041,10 +1042,10 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -1053,10 +1054,10 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" t="s">
-        <v>76</v>
+        <v>104</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="L2" t="s">
         <v>2</v>
@@ -1076,61 +1077,61 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1145,67 +1146,67 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1219,12 +1220,12 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1264,22 +1265,22 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>75</v>
+        <v>103</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
@@ -1299,16 +1300,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC94B35-9725-4AFF-93E2-75C8BA71255C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1319,18 +1320,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1341,15 +1342,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1364,12 +1365,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1395,21 +1396,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
+        <v>103</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1421,9 +1422,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>700</v>
@@ -1435,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1453,15 +1454,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE8683-00A7-4798-B708-82A2E746ACEB}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1469,22 +1470,25 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1492,18 +1496,21 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
+        <v>103</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1519,12 +1526,12 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1538,23 +1545,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -1566,9 +1573,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -1580,9 +1587,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2">
         <v>77</v>
@@ -1594,9 +1601,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
         <v>70</v>
@@ -1608,9 +1615,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -1622,9 +1629,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2">
         <v>201</v>
@@ -1636,9 +1643,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2">
         <v>148</v>
@@ -1650,9 +1657,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2">
         <v>207</v>
@@ -1664,9 +1671,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2">
         <v>63</v>
@@ -1678,9 +1685,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2">
         <v>140</v>
@@ -1703,32 +1710,32 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1739,10 +1746,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
